--- a/parms.xlsx
+++ b/parms.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1970ACB-6E7D-4B06-8E00-27B88A5DCA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75FF30A-9070-4A52-98F3-F279A25B5B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{2526FB6E-82DB-4BB3-81DF-77C2972D279F}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -144,52 +144,34 @@
     <t>input_group_id</t>
   </si>
   <si>
-    <t>family_pet</t>
-  </si>
-  <si>
     <t>lovability</t>
   </si>
   <si>
-    <t>giraffe</t>
-  </si>
-  <si>
     <t>scariness</t>
   </si>
   <si>
-    <t>Giraffe?</t>
-  </si>
-  <si>
     <t>ferocity</t>
   </si>
   <si>
-    <t>rhino</t>
-  </si>
-  <si>
-    <t>gorilla</t>
-  </si>
-  <si>
     <t>penguin</t>
   </si>
   <si>
     <t>tiger</t>
   </si>
   <si>
-    <t>emu</t>
-  </si>
-  <si>
-    <t>Rhino?</t>
-  </si>
-  <si>
-    <t>Penguin?</t>
-  </si>
-  <si>
-    <t>Tiger?</t>
-  </si>
-  <si>
-    <t>Emu?</t>
-  </si>
-  <si>
-    <t>Gorilla?</t>
+    <t>wolf</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>boar</t>
+  </si>
+  <si>
+    <t>koala</t>
+  </si>
+  <si>
+    <t>dog</t>
   </si>
 </sst>
 </file>
@@ -198,7 +180,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -424,7 +406,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,7 +422,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -466,107 +448,7 @@
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -979,10 +861,10 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1072,10 +954,10 @@
     </row>
     <row r="2" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="6">
         <v>9</v>
@@ -1085,11 +967,11 @@
       </c>
       <c r="E2" s="15" t="str">
         <f t="shared" ref="E2:E20" si="0">A2&amp;"_"&amp;B2</f>
-        <v>family_pet_lovability</v>
+        <v>dog_lovability</v>
       </c>
       <c r="F2" s="16" t="str">
         <f t="shared" ref="F2:F20" si="1">A2</f>
-        <v>family_pet</v>
+        <v>dog</v>
       </c>
       <c r="G2" s="16" t="str">
         <f t="shared" ref="G2:G20" si="2">B2</f>
@@ -1125,10 +1007,11 @@
         <v>1</v>
       </c>
       <c r="Q2" s="10">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="R2" s="7" t="str">
+        <f>":"&amp;A2&amp;": "&amp;A2&amp;" "&amp;$B$1&amp;"s"</f>
+        <v>:dog: dog attributes</v>
       </c>
       <c r="S2" s="10">
         <v>0</v>
@@ -1142,10 +1025,10 @@
     </row>
     <row r="3" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6">
         <v>8</v>
@@ -1153,11 +1036,11 @@
       <c r="D3" s="19"/>
       <c r="E3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>giraffe_lovability</v>
+        <v>wolf_lovability</v>
       </c>
       <c r="F3" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>giraffe</v>
+        <v>wolf</v>
       </c>
       <c r="G3" s="16" t="str">
         <f t="shared" si="2"/>
@@ -1174,7 +1057,7 @@
         <v>lovability</v>
       </c>
       <c r="K3" s="25">
-        <f t="shared" ref="K3:K5" si="4">C3</f>
+        <f t="shared" ref="K3:K20" si="4">C3</f>
         <v>8</v>
       </c>
       <c r="L3" s="17">
@@ -1196,14 +1079,15 @@
         <v>1</v>
       </c>
       <c r="R3" s="7" t="str">
-        <f>A3&amp;" "&amp;$B$1&amp;"s"</f>
-        <v>giraffe attributes</v>
+        <f>":"&amp;A3&amp;": "&amp;A3&amp;" "&amp;$B$1&amp;"s"</f>
+        <v>:wolf: wolf attributes</v>
       </c>
       <c r="S3" s="10">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="T3" s="7" t="str">
+        <f>PROPER(A3)&amp;"?"</f>
+        <v>Wolf?</v>
       </c>
       <c r="U3" s="7">
         <v>0</v>
@@ -1211,10 +1095,10 @@
     </row>
     <row r="4" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -1222,11 +1106,11 @@
       <c r="D4" s="4"/>
       <c r="E4" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>giraffe_scariness</v>
+        <v>wolf_scariness</v>
       </c>
       <c r="F4" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>giraffe</v>
+        <v>wolf</v>
       </c>
       <c r="G4" s="16" t="str">
         <f t="shared" si="2"/>
@@ -1279,10 +1163,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="24">
         <v>3</v>
@@ -1290,11 +1174,11 @@
       <c r="D5" s="4"/>
       <c r="E5" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>giraffe_ferocity</v>
+        <v>wolf_ferocity</v>
       </c>
       <c r="F5" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>giraffe</v>
+        <v>wolf</v>
       </c>
       <c r="G5" s="16" t="str">
         <f t="shared" si="2"/>
@@ -1347,22 +1231,22 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6">
-        <v>30000</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>rhino_lovability</v>
+        <v>tiger_lovability</v>
       </c>
       <c r="F6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>rhino</v>
+        <v>tiger</v>
       </c>
       <c r="G6" s="16" t="str">
         <f t="shared" si="2"/>
@@ -1379,6 +1263,7 @@
         <v>lovability</v>
       </c>
       <c r="K6" s="25">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L6" s="17">
@@ -1400,14 +1285,15 @@
         <v>1</v>
       </c>
       <c r="R6" s="7" t="str">
-        <f t="shared" ref="R6:R20" si="5">A6&amp;" "&amp;$B$1&amp;"s"</f>
-        <v>rhino attributes</v>
+        <f>":"&amp;A6&amp;": "&amp;A6&amp;" "&amp;$B$1&amp;"s"</f>
+        <v>:tiger: tiger attributes</v>
       </c>
       <c r="S6" s="10">
         <v>1</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>37</v>
+      <c r="T6" s="7" t="str">
+        <f>PROPER(A6)&amp;"?"</f>
+        <v>Tiger?</v>
       </c>
       <c r="U6" s="7">
         <v>1</v>
@@ -1415,22 +1301,22 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6">
-        <v>5000</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>rhino_scariness</v>
+        <v>tiger_scariness</v>
       </c>
       <c r="F7" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>rhino</v>
+        <v>tiger</v>
       </c>
       <c r="G7" s="16" t="str">
         <f t="shared" si="2"/>
@@ -1447,6 +1333,7 @@
         <v>scariness</v>
       </c>
       <c r="K7" s="25">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L7" s="17">
@@ -1482,22 +1369,22 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6">
-        <v>250000</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>rhino_ferocity</v>
+        <v>tiger_ferocity</v>
       </c>
       <c r="F8" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>rhino</v>
+        <v>tiger</v>
       </c>
       <c r="G8" s="16" t="str">
         <f t="shared" si="2"/>
@@ -1514,6 +1401,7 @@
         <v>ferocity</v>
       </c>
       <c r="K8" s="25">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L8" s="17">
@@ -1552,19 +1440,19 @@
         <v>33</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="24">
-        <v>4000</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>gorilla_lovability</v>
+        <v>boar_lovability</v>
       </c>
       <c r="F9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>gorilla</v>
+        <v>boar</v>
       </c>
       <c r="G9" s="16" t="str">
         <f t="shared" si="2"/>
@@ -1581,6 +1469,7 @@
         <v>lovability</v>
       </c>
       <c r="K9" s="25">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="L9" s="17">
@@ -1602,14 +1491,15 @@
         <v>1</v>
       </c>
       <c r="R9" s="7" t="str">
-        <f t="shared" ref="R9:R20" si="6">A9&amp;" "&amp;$B$1&amp;"s"</f>
-        <v>gorilla attributes</v>
+        <f>":"&amp;A9&amp;": "&amp;A9&amp;" "&amp;$B$1&amp;"s"</f>
+        <v>:boar: boar attributes</v>
       </c>
       <c r="S9" s="10">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="T9" s="7" t="str">
+        <f>PROPER(A9)&amp;"?"</f>
+        <v>Boar?</v>
       </c>
       <c r="U9" s="7">
         <v>0</v>
@@ -1620,19 +1510,19 @@
         <v>33</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="24">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>gorilla_scariness</v>
+        <v>boar_scariness</v>
       </c>
       <c r="F10" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>gorilla</v>
+        <v>boar</v>
       </c>
       <c r="G10" s="16" t="str">
         <f t="shared" si="2"/>
@@ -1649,6 +1539,7 @@
         <v>scariness</v>
       </c>
       <c r="K10" s="25">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L10" s="17">
@@ -1687,18 +1578,18 @@
         <v>33</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="24">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>gorilla_ferocity</v>
+        <v>boar_ferocity</v>
       </c>
       <c r="F11" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>gorilla</v>
+        <v>boar</v>
       </c>
       <c r="G11" s="16" t="str">
         <f t="shared" si="2"/>
@@ -1715,7 +1606,8 @@
         <v>ferocity</v>
       </c>
       <c r="K11" s="25">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="L11" s="17">
         <v>0</v>
@@ -1750,13 +1642,13 @@
     </row>
     <row r="12" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="24">
-        <v>90000</v>
+        <v>8</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="20" t="str">
@@ -1782,6 +1674,7 @@
         <v>lovability</v>
       </c>
       <c r="K12" s="25">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="L12" s="17">
@@ -1803,14 +1696,15 @@
         <v>1</v>
       </c>
       <c r="R12" s="7" t="str">
-        <f t="shared" ref="R12:R20" si="7">A12&amp;" "&amp;$B$1&amp;"s"</f>
-        <v>penguin attributes</v>
+        <f>":"&amp;A12&amp;": "&amp;A12&amp;" "&amp;$B$1&amp;"s"</f>
+        <v>:penguin: penguin attributes</v>
       </c>
       <c r="S12" s="10">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="T12" s="7" t="str">
+        <f>PROPER(A12)&amp;"?"</f>
+        <v>Penguin?</v>
       </c>
       <c r="U12" s="7">
         <v>0</v>
@@ -1818,13 +1712,13 @@
     </row>
     <row r="13" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A13" s="23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="24">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="E13" s="20" t="str">
         <f t="shared" si="0"/>
@@ -1849,6 +1743,7 @@
         <v>scariness</v>
       </c>
       <c r="K13" s="25">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L13" s="17">
@@ -1884,13 +1779,13 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="20" t="str">
         <f t="shared" si="0"/>
@@ -1915,6 +1810,7 @@
         <v>ferocity</v>
       </c>
       <c r="K14" s="25">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L14" s="17">
@@ -1950,22 +1846,22 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="24">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>tiger_lovability</v>
+        <v>elephant_lovability</v>
       </c>
       <c r="F15" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>tiger</v>
+        <v>elephant</v>
       </c>
       <c r="G15" s="16" t="str">
         <f t="shared" si="2"/>
@@ -1982,6 +1878,7 @@
         <v>lovability</v>
       </c>
       <c r="K15" s="25">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="L15" s="17">
@@ -2003,14 +1900,15 @@
         <v>1</v>
       </c>
       <c r="R15" s="7" t="str">
-        <f t="shared" ref="R15:R20" si="8">A15&amp;" "&amp;$B$1&amp;"s"</f>
-        <v>tiger attributes</v>
+        <f>":"&amp;A15&amp;": "&amp;A15&amp;" "&amp;$B$1&amp;"s"</f>
+        <v>:elephant: elephant attributes</v>
       </c>
       <c r="S15" s="10">
         <v>1</v>
       </c>
-      <c r="T15" s="7" t="s">
-        <v>39</v>
+      <c r="T15" s="7" t="str">
+        <f>PROPER(A15)&amp;"?"</f>
+        <v>Elephant?</v>
       </c>
       <c r="U15" s="7">
         <v>1</v>
@@ -2018,22 +1916,22 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6">
-        <v>50000</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>tiger_scariness</v>
+        <v>elephant_scariness</v>
       </c>
       <c r="F16" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>tiger</v>
+        <v>elephant</v>
       </c>
       <c r="G16" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2050,7 +1948,8 @@
         <v>scariness</v>
       </c>
       <c r="K16" s="25">
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="L16" s="17">
         <v>0</v>
@@ -2085,22 +1984,22 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>tiger_ferocity</v>
+        <v>elephant_ferocity</v>
       </c>
       <c r="F17" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>tiger</v>
+        <v>elephant</v>
       </c>
       <c r="G17" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2117,7 +2016,8 @@
         <v>ferocity</v>
       </c>
       <c r="K17" s="25">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L17" s="17">
         <v>0</v>
@@ -2152,22 +2052,22 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>emu_lovability</v>
+        <v>koala_lovability</v>
       </c>
       <c r="F18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>emu</v>
+        <v>koala</v>
       </c>
       <c r="G18" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2184,6 +2084,7 @@
         <v>lovability</v>
       </c>
       <c r="K18" s="25">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L18" s="17">
@@ -2205,14 +2106,15 @@
         <v>1</v>
       </c>
       <c r="R18" s="7" t="str">
-        <f t="shared" ref="R18:R20" si="9">A18&amp;" "&amp;$B$1&amp;"s"</f>
-        <v>emu attributes</v>
+        <f>":"&amp;A18&amp;": "&amp;A18&amp;" "&amp;$B$1&amp;"s"</f>
+        <v>:koala: koala attributes</v>
       </c>
       <c r="S18" s="10">
         <v>1</v>
       </c>
-      <c r="T18" s="7" t="s">
-        <v>40</v>
+      <c r="T18" s="7" t="str">
+        <f>PROPER(A18)&amp;"?"</f>
+        <v>Koala?</v>
       </c>
       <c r="U18" s="7">
         <v>0</v>
@@ -2220,21 +2122,21 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>emu_scariness</v>
+        <v>koala_scariness</v>
       </c>
       <c r="F19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>emu</v>
+        <v>koala</v>
       </c>
       <c r="G19" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2251,7 +2153,8 @@
         <v>scariness</v>
       </c>
       <c r="K19" s="25">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L19" s="17">
         <v>0</v>
@@ -2286,21 +2189,21 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="24">
-        <v>60000</v>
+        <v>2</v>
       </c>
       <c r="E20" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>emu_ferocity</v>
+        <v>koala_ferocity</v>
       </c>
       <c r="F20" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>emu</v>
+        <v>koala</v>
       </c>
       <c r="G20" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2317,7 +2220,8 @@
         <v>ferocity</v>
       </c>
       <c r="K20" s="25">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="L20" s="17">
         <v>0</v>
@@ -2356,17 +2260,17 @@
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="Q2:Q5 S2">
-    <cfRule type="cellIs" dxfId="18" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="17" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
-    <cfRule type="cellIs" dxfId="16" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/parms.xlsx
+++ b/parms.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75FF30A-9070-4A52-98F3-F279A25B5B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373EFD87-4967-4125-8B87-4D2A3B820A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{2526FB6E-82DB-4BB3-81DF-77C2972D279F}"/>
   </bookViews>
@@ -861,10 +861,10 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1296,7 +1296,7 @@
         <v>Tiger?</v>
       </c>
       <c r="U6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
@@ -1911,7 +1911,7 @@
         <v>Elephant?</v>
       </c>
       <c r="U15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
@@ -2117,7 +2117,7 @@
         <v>Koala?</v>
       </c>
       <c r="U18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
